--- a/demo_MES系統規劃.xlsx
+++ b/demo_MES系統規劃.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Demo_MES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C099E46-381C-4863-B90F-73659546D100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D89885-75B3-4849-9C3F-6E842918D8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="1248" windowWidth="23172" windowHeight="13224" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo Info" sheetId="1" r:id="rId1"/>
@@ -509,10 +509,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Route_Operstion_Step</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>R</t>
     </r>
@@ -526,6 +522,10 @@
       </rPr>
       <t>ecipe_Version</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Route_Operation_Step</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -648,18 +648,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -676,22 +664,34 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -925,73 +925,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -1000,7 +1000,7 @@
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1010,7 +1010,7 @@
       <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1020,7 +1020,7 @@
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1032,7 +1032,7 @@
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1041,78 +1041,78 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:26" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="9">
+    <row r="13" spans="1:26" s="4" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="5">
         <v>8</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="14" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" ht="46.8">
-      <c r="A14" s="9">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="17" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -2126,18 +2126,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="2">
@@ -2151,7 +2151,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3171,24 +3171,24 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3236,24 +3236,24 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3282,24 +3282,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3315,24 +3315,24 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>68</v>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3356,24 +3356,24 @@
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3410,18 +3410,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="2">
@@ -3443,7 +3443,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4468,24 +4468,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5538,18 +5538,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="2">
@@ -6590,18 +6590,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="2">
@@ -7635,34 +7635,34 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7670,7 +7670,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7688,6 +7688,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7707,18 +7708,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="2">
@@ -7756,7 +7757,7 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7764,7 +7765,7 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -8784,41 +8785,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="15.6">
+      <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="16.2" thickBot="1">
-      <c r="A3" s="11">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="11">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
     </row>
